--- a/MavenBook/src/test/resources/VendorData.xlsx
+++ b/MavenBook/src/test/resources/VendorData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>Salutation</t>
   </si>
@@ -129,15 +129,9 @@
     <t>Mr</t>
   </si>
   <si>
-    <t>Subin</t>
-  </si>
-  <si>
     <t>Mathew</t>
   </si>
   <si>
-    <t>subin.polosys@yahoo.com</t>
-  </si>
-  <si>
     <t>subin.polosys2@yahoo.com</t>
   </si>
   <si>
@@ -220,13 +214,28 @@
   </si>
   <si>
     <t>Automated one</t>
+  </si>
+  <si>
+    <t>Sunil</t>
+  </si>
+  <si>
+    <t>sunil.polosys@yahoo.com</t>
+  </si>
+  <si>
+    <t>Contact Salutation</t>
+  </si>
+  <si>
+    <t>Contact FName</t>
+  </si>
+  <si>
+    <t>Contact LName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +289,14 @@
       <name val="Lucida Fax"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,10 +315,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -319,8 +337,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -626,10 +646,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>5</v>
@@ -735,72 +755,72 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="I2" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K2" s="14">
         <v>100</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="14">
         <v>100</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -955,8 +975,11 @@
       <c r="J29" s="15"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="M2" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -969,7 +992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1028,25 +1051,25 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="14">
         <v>452102</v>
@@ -1162,17 +1185,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="10" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
@@ -1180,19 +1203,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>34</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>35</v>
@@ -1200,16 +1223,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="E2" s="15">
         <v>4561320789</v>
